--- a/Time Availability.xlsx
+++ b/Time Availability.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Rawdata" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>Timestamp</t>
   </si>
@@ -124,12 +124,33 @@
   <si>
     <t>name11</t>
   </si>
+  <si>
+    <t>0000-0400</t>
+  </si>
+  <si>
+    <t>0400-0800</t>
+  </si>
+  <si>
+    <t>0800-1200</t>
+  </si>
+  <si>
+    <t>1200-1600</t>
+  </si>
+  <si>
+    <t>1600-2000</t>
+  </si>
+  <si>
+    <t>2000-0000</t>
+  </si>
+  <si>
+    <t>Email@address.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -152,6 +173,19 @@
       <sz val="13"/>
       <color rgb="FF333333"/>
       <name val="Liberation-serif-1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -177,10 +211,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -205,20 +240,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -547,7 +596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -596,50 +645,50 @@
       <c r="AB1" s="6"/>
       <c r="AC1" s="6"/>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" ht="16.5">
       <c r="A2" s="7"/>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="20" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="20" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="20" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="20" t="s">
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="20" t="s">
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="20" t="s">
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
     </row>
     <row r="3" spans="1:29" ht="15.75" customHeight="1">
       <c r="A3" s="6"/>
@@ -31723,162 +31772,189 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>18</v>
+      <c r="D1" s="22" t="s">
+        <v>33</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="E1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="24"/>
       <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>19</v>
+      <c r="D2" s="22" t="s">
+        <v>34</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="E2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="25"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>20</v>
+      <c r="D3" s="22" t="s">
+        <v>35</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="25"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>21</v>
+      <c r="D4" s="22" t="s">
+        <v>36</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="D5" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="A6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="D6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="12"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="12"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -31887,24 +31963,26 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="12"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -31913,22 +31991,24 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="12"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -31937,22 +32017,24 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="12"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -31961,22 +32043,24 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="12"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -31985,22 +32069,24 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1">
       <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="12"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1">
       <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -32009,22 +32095,24 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="12"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -32033,22 +32121,24 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
       <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="12"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -32057,22 +32147,24 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1">
       <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="12"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1">
       <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -32081,22 +32173,24 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1">
       <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="12"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="6"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1">
       <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -32105,22 +32199,24 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" ht="12.75">
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" ht="12.75">
       <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="12"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="1:10" ht="12.75">
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="1:11" ht="12.75">
       <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -32129,22 +32225,24 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="1:10" ht="12.75">
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" ht="12.75">
       <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="12"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
-    </row>
-    <row r="32" spans="1:10" ht="12.75">
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="1:11" ht="12.75">
       <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -32153,224 +32251,249 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="1:10" ht="12.75">
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" ht="12.75">
       <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="12"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="6"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
-    </row>
-    <row r="34" spans="1:10" ht="12.75">
+      <c r="K33" s="12"/>
+    </row>
+    <row r="34" spans="1:11" ht="12.75">
       <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="12"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="6"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
-    </row>
-    <row r="35" spans="1:10" ht="12.75">
+      <c r="K34" s="12"/>
+    </row>
+    <row r="35" spans="1:11" ht="12.75">
       <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="12"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="6"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
-    </row>
-    <row r="36" spans="1:10" ht="12.75">
+      <c r="K35" s="12"/>
+    </row>
+    <row r="36" spans="1:11" ht="12.75">
       <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="12"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="6"/>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
-    </row>
-    <row r="37" spans="1:10" ht="12.75">
+      <c r="K36" s="12"/>
+    </row>
+    <row r="37" spans="1:11" ht="12.75">
       <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="12"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="6"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="1:10" ht="12.75">
+      <c r="K37" s="12"/>
+    </row>
+    <row r="38" spans="1:11" ht="12.75">
       <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="12"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="6"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
-    </row>
-    <row r="39" spans="1:10" ht="12.75">
+      <c r="K38" s="12"/>
+    </row>
+    <row r="39" spans="1:11" ht="12.75">
       <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="12"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="6"/>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
-    </row>
-    <row r="40" spans="1:10" ht="12.75">
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="1:11" ht="12.75">
       <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="12"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="6"/>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
-    </row>
-    <row r="41" spans="1:10" ht="12.75">
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" spans="1:11" ht="12.75">
       <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="12"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="6"/>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
-    </row>
-    <row r="42" spans="1:10" ht="12.75">
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" spans="1:11" ht="12.75">
       <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="12"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="6"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
-    </row>
-    <row r="43" spans="1:10" ht="12.75">
+      <c r="K42" s="12"/>
+    </row>
+    <row r="43" spans="1:11" ht="12.75">
       <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="12"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="6"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
-    </row>
-    <row r="44" spans="1:10" ht="12.75">
+      <c r="K43" s="12"/>
+    </row>
+    <row r="44" spans="1:11" ht="12.75">
       <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="12"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="6"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
-    </row>
-    <row r="45" spans="1:10" ht="12.75">
+      <c r="K44" s="12"/>
+    </row>
+    <row r="45" spans="1:11" ht="12.75">
       <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="12"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="6"/>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
-    </row>
-    <row r="46" spans="1:10" ht="12.75">
+      <c r="K45" s="12"/>
+    </row>
+    <row r="46" spans="1:11" ht="12.75">
       <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="12"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="6"/>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
-    </row>
-    <row r="47" spans="1:10" ht="12.75">
+      <c r="K46" s="12"/>
+    </row>
+    <row r="47" spans="1:11" ht="12.75">
       <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
+      <c r="B47" s="15"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="12"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="6"/>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
-    </row>
-    <row r="48" spans="1:10" ht="12.75">
+      <c r="K47" s="12"/>
+    </row>
+    <row r="48" spans="1:11" ht="12.75">
       <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
+      <c r="B48" s="15"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="12"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="6"/>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
-    </row>
-    <row r="49" spans="1:10" ht="12.75">
+      <c r="K48" s="12"/>
+    </row>
+    <row r="49" spans="1:11" ht="12.75">
       <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
+      <c r="B49" s="15"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="12"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="6"/>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
-    </row>
-    <row r="50" spans="1:10" ht="12.75">
+      <c r="K49" s="12"/>
+    </row>
+    <row r="50" spans="1:11" ht="12.75">
       <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
+      <c r="B50" s="15"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="12"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="6"/>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>